--- a/data/pca/factorExposure/factorExposure_2017-03-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01606332752945962</v>
+        <v>0.01052264200226966</v>
       </c>
       <c r="C2">
-        <v>0.01768900030292703</v>
+        <v>-0.04218605372423861</v>
       </c>
       <c r="D2">
-        <v>0.02753044693143279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02997808626919875</v>
+      </c>
+      <c r="E2">
+        <v>0.03916570301666206</v>
+      </c>
+      <c r="F2">
+        <v>-0.000747978032091791</v>
+      </c>
+      <c r="G2">
+        <v>0.1045824959942778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01849921568079272</v>
+        <v>0.03932270724542935</v>
       </c>
       <c r="C3">
-        <v>-0.0007148431128421167</v>
+        <v>-0.09991710219356645</v>
       </c>
       <c r="D3">
-        <v>0.08790300797161391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01790764101247302</v>
+      </c>
+      <c r="E3">
+        <v>0.1029046597893243</v>
+      </c>
+      <c r="F3">
+        <v>0.003000965330461823</v>
+      </c>
+      <c r="G3">
+        <v>0.1571141333796164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02840842325620572</v>
+        <v>0.05479807887451141</v>
       </c>
       <c r="C4">
-        <v>0.007593674586787423</v>
+        <v>-0.06867082698112112</v>
       </c>
       <c r="D4">
-        <v>0.07776304934937076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02483262345415323</v>
+      </c>
+      <c r="E4">
+        <v>0.03628716678631421</v>
+      </c>
+      <c r="F4">
+        <v>-0.009076352840066816</v>
+      </c>
+      <c r="G4">
+        <v>0.1001202472354436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01208624083065135</v>
+        <v>0.0354190126147433</v>
       </c>
       <c r="C6">
-        <v>0.009724713887588526</v>
+        <v>-0.05081902271238789</v>
       </c>
       <c r="D6">
-        <v>0.07477626118928549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0173674662208688</v>
+      </c>
+      <c r="E6">
+        <v>0.04074852444508054</v>
+      </c>
+      <c r="F6">
+        <v>-0.003414783437869396</v>
+      </c>
+      <c r="G6">
+        <v>0.08777256025272727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004364718435472919</v>
+        <v>0.02058234304281534</v>
       </c>
       <c r="C7">
-        <v>0.01061733514387916</v>
+        <v>-0.03948899983350709</v>
       </c>
       <c r="D7">
-        <v>0.03568414181953244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01403598133254402</v>
+      </c>
+      <c r="E7">
+        <v>0.008706023685895696</v>
+      </c>
+      <c r="F7">
+        <v>0.005372519037493953</v>
+      </c>
+      <c r="G7">
+        <v>0.1233626624786801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003024729958465726</v>
+        <v>0.002222559685878853</v>
       </c>
       <c r="C8">
-        <v>0.002742577976528861</v>
+        <v>-0.0241155434524453</v>
       </c>
       <c r="D8">
-        <v>-0.007296180383285417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003981331812105409</v>
+      </c>
+      <c r="E8">
+        <v>0.03151257970106459</v>
+      </c>
+      <c r="F8">
+        <v>-0.002204803527636664</v>
+      </c>
+      <c r="G8">
+        <v>0.07131311005118633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01390349903055678</v>
+        <v>0.03315437619059337</v>
       </c>
       <c r="C9">
-        <v>0.007419771785900534</v>
+        <v>-0.05013863524584974</v>
       </c>
       <c r="D9">
-        <v>0.05673408139571418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01648353755242733</v>
+      </c>
+      <c r="E9">
+        <v>0.02512237355572173</v>
+      </c>
+      <c r="F9">
+        <v>-0.006967518649696862</v>
+      </c>
+      <c r="G9">
+        <v>0.09980063779846823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1435555874287824</v>
+        <v>0.09971586834681449</v>
       </c>
       <c r="C10">
-        <v>-0.1055058949798768</v>
+        <v>0.1829873169135763</v>
       </c>
       <c r="D10">
-        <v>-0.1101268275176851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01548214903773147</v>
+      </c>
+      <c r="E10">
+        <v>0.02026922305768804</v>
+      </c>
+      <c r="F10">
+        <v>0.02166554434597524</v>
+      </c>
+      <c r="G10">
+        <v>0.05696240953951304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.001993917478284333</v>
+        <v>0.03395286373841214</v>
       </c>
       <c r="C11">
-        <v>-0.0003009960119312915</v>
+        <v>-0.05320955049488904</v>
       </c>
       <c r="D11">
-        <v>0.05077666464577765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002634143496152683</v>
+      </c>
+      <c r="E11">
+        <v>0.01983882570631344</v>
+      </c>
+      <c r="F11">
+        <v>-0.01780733469420656</v>
+      </c>
+      <c r="G11">
+        <v>0.09039115884107521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004735141485366114</v>
+        <v>0.03543996845955438</v>
       </c>
       <c r="C12">
-        <v>0.003706303807546453</v>
+        <v>-0.04803317721972324</v>
       </c>
       <c r="D12">
-        <v>0.04313258834702008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006698567881721371</v>
+      </c>
+      <c r="E12">
+        <v>0.01040879371614908</v>
+      </c>
+      <c r="F12">
+        <v>-0.0009006161485485437</v>
+      </c>
+      <c r="G12">
+        <v>0.08217384073614949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01801685739819414</v>
+        <v>0.01490321853776399</v>
       </c>
       <c r="C13">
-        <v>0.01324160250950921</v>
+        <v>-0.04202760301086378</v>
       </c>
       <c r="D13">
-        <v>0.03370714798477031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02677030578626751</v>
+      </c>
+      <c r="E13">
+        <v>0.03986102712974927</v>
+      </c>
+      <c r="F13">
+        <v>0.001171360193107858</v>
+      </c>
+      <c r="G13">
+        <v>0.1411127449582836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.003160033865176292</v>
+        <v>0.007999912357370813</v>
       </c>
       <c r="C14">
-        <v>0.005986914091463898</v>
+        <v>-0.02818527167335121</v>
       </c>
       <c r="D14">
-        <v>0.0189231968041675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01028323196503203</v>
+      </c>
+      <c r="E14">
+        <v>0.00929687099222834</v>
+      </c>
+      <c r="F14">
+        <v>0.008489848382039226</v>
+      </c>
+      <c r="G14">
+        <v>0.1077524504847962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005331018696331677</v>
+        <v>0.03261186254533775</v>
       </c>
       <c r="C16">
-        <v>-0.002809527544159172</v>
+        <v>-0.04638451126266049</v>
       </c>
       <c r="D16">
-        <v>0.0402669617781609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002089019284651216</v>
+      </c>
+      <c r="E16">
+        <v>0.01637230091480174</v>
+      </c>
+      <c r="F16">
+        <v>0.0008552835941718158</v>
+      </c>
+      <c r="G16">
+        <v>0.09237538760225193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01073607568319324</v>
+        <v>0.02173167728294653</v>
       </c>
       <c r="C19">
-        <v>0.008234192428611469</v>
+        <v>-0.05131796197435076</v>
       </c>
       <c r="D19">
-        <v>0.03746364668166927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01961684597477273</v>
+      </c>
+      <c r="E19">
+        <v>0.08385750103290948</v>
+      </c>
+      <c r="F19">
+        <v>-0.01269325780010636</v>
+      </c>
+      <c r="G19">
+        <v>0.1386892789595182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.004646132757501038</v>
+        <v>0.01526575235868177</v>
       </c>
       <c r="C20">
-        <v>0.009592686319048685</v>
+        <v>-0.04209755968655963</v>
       </c>
       <c r="D20">
-        <v>0.0329934781247098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01445262724617547</v>
+      </c>
+      <c r="E20">
+        <v>0.03929207849796808</v>
+      </c>
+      <c r="F20">
+        <v>0.01625967428986746</v>
+      </c>
+      <c r="G20">
+        <v>0.1114610080424593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01181944724283151</v>
+        <v>0.0109469395541958</v>
       </c>
       <c r="C21">
-        <v>0.007277310792257395</v>
+        <v>-0.03844129185241796</v>
       </c>
       <c r="D21">
-        <v>0.01908737550154698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01952072655526968</v>
+      </c>
+      <c r="E21">
+        <v>0.05320946364519283</v>
+      </c>
+      <c r="F21">
+        <v>0.004723612781450844</v>
+      </c>
+      <c r="G21">
+        <v>0.1391005808105227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002082627131017699</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-4.951485840928243e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0007733184677483337</v>
+      </c>
+      <c r="E22">
+        <v>0.005956230902633251</v>
+      </c>
+      <c r="F22">
+        <v>-0.002635165229460932</v>
+      </c>
+      <c r="G22">
+        <v>0.007244142543572524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00207770132119247</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-4.94383870878724e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0007687890708885204</v>
+      </c>
+      <c r="E23">
+        <v>0.005917861597938565</v>
+      </c>
+      <c r="F23">
+        <v>-0.002606027747710084</v>
+      </c>
+      <c r="G23">
+        <v>0.007125663949235653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001225509799929934</v>
+        <v>0.02782139982363502</v>
       </c>
       <c r="C24">
-        <v>0.007167389731725874</v>
+        <v>-0.05007683897480682</v>
       </c>
       <c r="D24">
-        <v>0.04343146092349297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007316733466067166</v>
+      </c>
+      <c r="E24">
+        <v>0.01429065027486376</v>
+      </c>
+      <c r="F24">
+        <v>-0.009918536148897462</v>
+      </c>
+      <c r="G24">
+        <v>0.09079647676578409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01558615657139836</v>
+        <v>0.0415836326444261</v>
       </c>
       <c r="C25">
-        <v>0.001965859887861496</v>
+        <v>-0.05773300493499632</v>
       </c>
       <c r="D25">
-        <v>0.05777205021030275</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01133746757110087</v>
+      </c>
+      <c r="E25">
+        <v>0.00605348548485202</v>
+      </c>
+      <c r="F25">
+        <v>-0.003994187170006637</v>
+      </c>
+      <c r="G25">
+        <v>0.09858261831969449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01209197884917496</v>
+        <v>0.01346009976290276</v>
       </c>
       <c r="C26">
-        <v>0.01801801743619506</v>
+        <v>-0.01281396165872193</v>
       </c>
       <c r="D26">
-        <v>0.0001574708880911506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02424909279249653</v>
+      </c>
+      <c r="E26">
+        <v>0.01020893015571844</v>
+      </c>
+      <c r="F26">
+        <v>0.007673388694174283</v>
+      </c>
+      <c r="G26">
+        <v>0.08341961570518647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1943711578472592</v>
+        <v>0.1288133266046368</v>
       </c>
       <c r="C28">
-        <v>-0.1249534773199857</v>
+        <v>0.2416087812833903</v>
       </c>
       <c r="D28">
-        <v>-0.1385525761052233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006650722868043712</v>
+      </c>
+      <c r="E28">
+        <v>0.008701889352098037</v>
+      </c>
+      <c r="F28">
+        <v>0.01780046597984871</v>
+      </c>
+      <c r="G28">
+        <v>0.04874294066249906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008877185039265037</v>
+        <v>0.008642961862782822</v>
       </c>
       <c r="C29">
-        <v>0.001630964299739904</v>
+        <v>-0.02300744168022748</v>
       </c>
       <c r="D29">
-        <v>0.01634162299931213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009380165985365996</v>
+      </c>
+      <c r="E29">
+        <v>0.005715512345310104</v>
+      </c>
+      <c r="F29">
+        <v>0.01472593313709686</v>
+      </c>
+      <c r="G29">
+        <v>0.0992874167956338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01144527363691134</v>
+        <v>0.04000542498046337</v>
       </c>
       <c r="C30">
-        <v>0.02137307658347175</v>
+        <v>-0.06855105728519507</v>
       </c>
       <c r="D30">
-        <v>0.09630820110797964</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02928456782233669</v>
+      </c>
+      <c r="E30">
+        <v>0.06504878030056095</v>
+      </c>
+      <c r="F30">
+        <v>-0.03902133752320547</v>
+      </c>
+      <c r="G30">
+        <v>0.1346430838724444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02475502992298159</v>
+        <v>0.05259882100631234</v>
       </c>
       <c r="C31">
-        <v>-0.01120389966633257</v>
+        <v>-0.03981995519313006</v>
       </c>
       <c r="D31">
-        <v>0.03294635817763388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00389906356120632</v>
+      </c>
+      <c r="E31">
+        <v>-0.001029814073899934</v>
+      </c>
+      <c r="F31">
+        <v>0.03829341828836823</v>
+      </c>
+      <c r="G31">
+        <v>0.09890148314318194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0008236468112810509</v>
+        <v>0.002238535406713938</v>
       </c>
       <c r="C32">
-        <v>-0.01049916424604737</v>
+        <v>-0.02148851491114803</v>
       </c>
       <c r="D32">
-        <v>-0.004303546545573381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002733527788781367</v>
+      </c>
+      <c r="E32">
+        <v>0.03891595172341818</v>
+      </c>
+      <c r="F32">
+        <v>-0.03622324910168327</v>
+      </c>
+      <c r="G32">
+        <v>0.08728154359915988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009821639609741724</v>
+        <v>0.02748527909787762</v>
       </c>
       <c r="C33">
-        <v>0.006631301943610459</v>
+        <v>-0.0512115760457381</v>
       </c>
       <c r="D33">
-        <v>0.04143814374089768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01627504955074171</v>
+      </c>
+      <c r="E33">
+        <v>0.04778662353373703</v>
+      </c>
+      <c r="F33">
+        <v>-0.01263459365961546</v>
+      </c>
+      <c r="G33">
+        <v>0.162739956866075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.008793801524414262</v>
+        <v>0.03901218175858092</v>
       </c>
       <c r="C34">
-        <v>-0.01266835016806485</v>
+        <v>-0.05980467325170136</v>
       </c>
       <c r="D34">
-        <v>0.05537836708522292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004156726225414077</v>
+      </c>
+      <c r="E34">
+        <v>0.01149014379502197</v>
+      </c>
+      <c r="F34">
+        <v>-0.02074991144158164</v>
+      </c>
+      <c r="G34">
+        <v>0.09400293384132724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01450021660501663</v>
+        <v>0.01567238640632901</v>
       </c>
       <c r="C36">
-        <v>0.002721861982979565</v>
+        <v>-0.01062837982483321</v>
       </c>
       <c r="D36">
-        <v>0.005040931353369331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01283641060632568</v>
+      </c>
+      <c r="E36">
+        <v>0.01068719540981684</v>
+      </c>
+      <c r="F36">
+        <v>0.00740113677617072</v>
+      </c>
+      <c r="G36">
+        <v>0.09305755205669453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01590604327068747</v>
+        <v>0.03081284834123265</v>
       </c>
       <c r="C38">
-        <v>-0.01993676058940186</v>
+        <v>-0.03074240869156709</v>
       </c>
       <c r="D38">
-        <v>0.04140014560580402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007474310810926625</v>
+      </c>
+      <c r="E38">
+        <v>0.007232592812734056</v>
+      </c>
+      <c r="F38">
+        <v>0.01753226912704996</v>
+      </c>
+      <c r="G38">
+        <v>0.0869302291752251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01102414008693213</v>
+        <v>0.03576828068236769</v>
       </c>
       <c r="C39">
-        <v>0.01821312831511895</v>
+        <v>-0.07955687865992776</v>
       </c>
       <c r="D39">
-        <v>0.0985459513053082</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01187262861763222</v>
+      </c>
+      <c r="E39">
+        <v>0.03161568391730268</v>
+      </c>
+      <c r="F39">
+        <v>-0.02002096767956419</v>
+      </c>
+      <c r="G39">
+        <v>0.08950888266303106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01507587345563945</v>
+        <v>0.01325452091877909</v>
       </c>
       <c r="C40">
-        <v>0.002452947986061165</v>
+        <v>-0.03852510778025584</v>
       </c>
       <c r="D40">
-        <v>0.02930160003074087</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01485347927867268</v>
+      </c>
+      <c r="E40">
+        <v>0.0325598100258111</v>
+      </c>
+      <c r="F40">
+        <v>0.01230459993588145</v>
+      </c>
+      <c r="G40">
+        <v>0.1239371150425027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01514832894972283</v>
+        <v>0.020326092686163</v>
       </c>
       <c r="C41">
-        <v>-0.006635740634255348</v>
+        <v>-0.004496663147538881</v>
       </c>
       <c r="D41">
-        <v>-0.009859149180477792</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004676622901105175</v>
+      </c>
+      <c r="E41">
+        <v>0.007831644495435473</v>
+      </c>
+      <c r="F41">
+        <v>0.01486243751806654</v>
+      </c>
+      <c r="G41">
+        <v>0.08564061278022277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03690252627439516</v>
+        <v>0.007492105243830048</v>
       </c>
       <c r="C42">
-        <v>0.08621510199244779</v>
+        <v>-0.03059423206707351</v>
       </c>
       <c r="D42">
-        <v>0.1192863294770135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08775305104583223</v>
+      </c>
+      <c r="E42">
+        <v>0.01144467087573897</v>
+      </c>
+      <c r="F42">
+        <v>0.04185712960473239</v>
+      </c>
+      <c r="G42">
+        <v>-0.0274457139631326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01500424178508198</v>
+        <v>0.03453344509090857</v>
       </c>
       <c r="C43">
-        <v>-0.005632235707303</v>
+        <v>-0.01969000809935019</v>
       </c>
       <c r="D43">
-        <v>-0.01026299133820731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006175487590601386</v>
+      </c>
+      <c r="E43">
+        <v>0.0220231202442199</v>
+      </c>
+      <c r="F43">
+        <v>0.007459114551645176</v>
+      </c>
+      <c r="G43">
+        <v>0.1198838683146739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-4.996203786649766e-06</v>
+        <v>0.01340186403658774</v>
       </c>
       <c r="C44">
-        <v>0.003120469076535815</v>
+        <v>-0.05853964655490326</v>
       </c>
       <c r="D44">
-        <v>0.04662163377933098</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006938172571192443</v>
+      </c>
+      <c r="E44">
+        <v>0.02556667048854172</v>
+      </c>
+      <c r="F44">
+        <v>0.007788862155645845</v>
+      </c>
+      <c r="G44">
+        <v>0.1100882847419558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006879862980029444</v>
+        <v>0.008918427425493623</v>
       </c>
       <c r="C46">
-        <v>0.00688791855965586</v>
+        <v>-0.01511814856001505</v>
       </c>
       <c r="D46">
-        <v>-0.003602292839070076</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01265059608055358</v>
+      </c>
+      <c r="E46">
+        <v>0.001220132033856853</v>
+      </c>
+      <c r="F46">
+        <v>0.01790207919941593</v>
+      </c>
+      <c r="G46">
+        <v>0.107593227505172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02261869981499728</v>
+        <v>0.077555966745892</v>
       </c>
       <c r="C47">
-        <v>-0.01749359020320725</v>
+        <v>-0.0701577127220247</v>
       </c>
       <c r="D47">
-        <v>0.07691632421184728</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004950389411104891</v>
+      </c>
+      <c r="E47">
+        <v>-0.008142162370099642</v>
+      </c>
+      <c r="F47">
+        <v>0.05232127035492375</v>
+      </c>
+      <c r="G47">
+        <v>0.08389940162713892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008613049338929056</v>
+        <v>0.01830983378105176</v>
       </c>
       <c r="C48">
-        <v>-0.00473569132116167</v>
+        <v>-0.01359574983969627</v>
       </c>
       <c r="D48">
-        <v>0.01565156562553983</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002487796337934023</v>
+      </c>
+      <c r="E48">
+        <v>0.006722448139577803</v>
+      </c>
+      <c r="F48">
+        <v>0.01898561984645722</v>
+      </c>
+      <c r="G48">
+        <v>0.09894795012045056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03154416509845964</v>
+        <v>0.07449256211245467</v>
       </c>
       <c r="C50">
-        <v>-0.02171878401059328</v>
+        <v>-0.07352622892422313</v>
       </c>
       <c r="D50">
-        <v>0.07062377158693144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002069988879471374</v>
+      </c>
+      <c r="E50">
+        <v>-0.004370890629225082</v>
+      </c>
+      <c r="F50">
+        <v>0.05293357180834264</v>
+      </c>
+      <c r="G50">
+        <v>0.09384618260984856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008098557164243056</v>
+        <v>0.01415814256581999</v>
       </c>
       <c r="C51">
-        <v>0.00131147242386262</v>
+        <v>-0.03699265194038162</v>
       </c>
       <c r="D51">
-        <v>0.02655774535633709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01061409762935716</v>
+      </c>
+      <c r="E51">
+        <v>0.03083388189180868</v>
+      </c>
+      <c r="F51">
+        <v>-0.0180395344258258</v>
+      </c>
+      <c r="G51">
+        <v>0.1249763494380001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03797807593418717</v>
+        <v>0.08144621776933209</v>
       </c>
       <c r="C53">
-        <v>-0.02571521316988559</v>
+        <v>-0.0857326953760338</v>
       </c>
       <c r="D53">
-        <v>0.1262633212983038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003376448214584998</v>
+      </c>
+      <c r="E53">
+        <v>-0.02706900033764157</v>
+      </c>
+      <c r="F53">
+        <v>0.06033852195975384</v>
+      </c>
+      <c r="G53">
+        <v>0.09428997870150203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01714343665256712</v>
+        <v>0.03123520871888955</v>
       </c>
       <c r="C54">
-        <v>-0.01557031086697214</v>
+        <v>-0.01954320958908845</v>
       </c>
       <c r="D54">
-        <v>-0.0003214742635345524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0009961243221045014</v>
+      </c>
+      <c r="E54">
+        <v>0.020434112579345</v>
+      </c>
+      <c r="F54">
+        <v>0.005903896904331435</v>
+      </c>
+      <c r="G54">
+        <v>0.1079505560455045</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02066824273601441</v>
+        <v>0.07158422500947526</v>
       </c>
       <c r="C55">
-        <v>-0.0151878931504903</v>
+        <v>-0.0683660924409472</v>
       </c>
       <c r="D55">
-        <v>0.1019905717595434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00497724549014049</v>
+      </c>
+      <c r="E55">
+        <v>-0.02491851232489386</v>
+      </c>
+      <c r="F55">
+        <v>0.06101512720941028</v>
+      </c>
+      <c r="G55">
+        <v>0.07019675771075437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04354152979607766</v>
+        <v>0.1358302747185409</v>
       </c>
       <c r="C56">
-        <v>-0.03402238610914923</v>
+        <v>-0.1087875994586551</v>
       </c>
       <c r="D56">
-        <v>0.1611259668083949</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01256756216322323</v>
+      </c>
+      <c r="E56">
+        <v>-0.03731445120155951</v>
+      </c>
+      <c r="F56">
+        <v>0.07756826188765589</v>
+      </c>
+      <c r="G56">
+        <v>0.04425893059881458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01992678065282317</v>
+        <v>0.005839240455061551</v>
       </c>
       <c r="C57">
-        <v>0.01331659942441774</v>
+        <v>-0.0059726619013969</v>
       </c>
       <c r="D57">
-        <v>0.0293791775546902</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02270512661927773</v>
+      </c>
+      <c r="E57">
+        <v>0.02496412227148535</v>
+      </c>
+      <c r="F57">
+        <v>-0.004577090211441633</v>
+      </c>
+      <c r="G57">
+        <v>0.02257222422977848</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02394205922332602</v>
+        <v>0.05057231536760851</v>
       </c>
       <c r="C58">
-        <v>-0.01478730044671939</v>
+        <v>-0.04417069257693261</v>
       </c>
       <c r="D58">
-        <v>0.1136773082279946</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02247191937552529</v>
+      </c>
+      <c r="E58">
+        <v>0.8876688005734295</v>
+      </c>
+      <c r="F58">
+        <v>0.3360103420467778</v>
+      </c>
+      <c r="G58">
+        <v>-0.2390449626317027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2173508261939683</v>
+        <v>0.1606985852460778</v>
       </c>
       <c r="C59">
-        <v>-0.1462563727659471</v>
+        <v>0.2053086203764372</v>
       </c>
       <c r="D59">
-        <v>-0.1127306959451721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01137932187338772</v>
+      </c>
+      <c r="E59">
+        <v>0.022295570297599</v>
+      </c>
+      <c r="F59">
+        <v>0.002581947914999665</v>
+      </c>
+      <c r="G59">
+        <v>0.04247884145717389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1867592455874983</v>
+        <v>0.2846455839169275</v>
       </c>
       <c r="C60">
-        <v>-0.1029357992988909</v>
+        <v>-0.1137872117181353</v>
       </c>
       <c r="D60">
-        <v>0.1612165716633707</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01276134205943955</v>
+      </c>
+      <c r="E60">
+        <v>0.02656620213637198</v>
+      </c>
+      <c r="F60">
+        <v>-0.3409769795326472</v>
+      </c>
+      <c r="G60">
+        <v>-0.1610379842973974</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002274653681524928</v>
+        <v>0.03794477935144189</v>
       </c>
       <c r="C61">
-        <v>0.002472711894235434</v>
+        <v>-0.06631103485661671</v>
       </c>
       <c r="D61">
-        <v>0.07591909577899691</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005910100273239772</v>
+      </c>
+      <c r="E61">
+        <v>0.02662486754493861</v>
+      </c>
+      <c r="F61">
+        <v>-0.01293404596791236</v>
+      </c>
+      <c r="G61">
+        <v>0.09801201110753563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.005087086727963203</v>
+        <v>0.01454696287084071</v>
       </c>
       <c r="C63">
-        <v>0.005224883334344818</v>
+        <v>-0.03068537847588447</v>
       </c>
       <c r="D63">
-        <v>0.0251328342408116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008764570829733198</v>
+      </c>
+      <c r="E63">
+        <v>0.006629510474845815</v>
+      </c>
+      <c r="F63">
+        <v>0.01421429011911482</v>
+      </c>
+      <c r="G63">
+        <v>0.09500129641323321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02539230792446596</v>
+        <v>0.0487770563730471</v>
       </c>
       <c r="C64">
-        <v>-0.01084997762266523</v>
+        <v>-0.04799481829707034</v>
       </c>
       <c r="D64">
-        <v>0.05641109166752543</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006442625062017295</v>
+      </c>
+      <c r="E64">
+        <v>0.00885447376283712</v>
+      </c>
+      <c r="F64">
+        <v>-0.004372947738206073</v>
+      </c>
+      <c r="G64">
+        <v>0.09954552714955089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03019528562206449</v>
+        <v>0.07399456556075142</v>
       </c>
       <c r="C65">
-        <v>0.0003258038156886666</v>
+        <v>-0.05860166404237065</v>
       </c>
       <c r="D65">
-        <v>0.1128048679803042</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01707640211851001</v>
+      </c>
+      <c r="E65">
+        <v>0.04461491118374416</v>
+      </c>
+      <c r="F65">
+        <v>-0.02610868371006683</v>
+      </c>
+      <c r="G65">
+        <v>0.04487806596100261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008778896602003098</v>
+        <v>0.04934894830367891</v>
       </c>
       <c r="C66">
-        <v>0.01620556169437501</v>
+        <v>-0.1060936062338232</v>
       </c>
       <c r="D66">
-        <v>0.139388825818792</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0119972339132247</v>
+      </c>
+      <c r="E66">
+        <v>0.04533434671349722</v>
+      </c>
+      <c r="F66">
+        <v>-0.03096049783817615</v>
+      </c>
+      <c r="G66">
+        <v>0.1046977831646079</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03686934801793163</v>
+        <v>0.05386286368182007</v>
       </c>
       <c r="C67">
-        <v>-0.02993366451448802</v>
+        <v>-0.03473922278764956</v>
       </c>
       <c r="D67">
-        <v>0.06170317703103834</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006034725594920375</v>
+      </c>
+      <c r="E67">
+        <v>-0.002803595113986961</v>
+      </c>
+      <c r="F67">
+        <v>0.01628719043125558</v>
+      </c>
+      <c r="G67">
+        <v>0.07449355576197014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.222292916084544</v>
+        <v>0.1590123858130587</v>
       </c>
       <c r="C68">
-        <v>-0.1262846700673182</v>
+        <v>0.2700000480103735</v>
       </c>
       <c r="D68">
-        <v>-0.1734400207272851</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.00563400971547333</v>
+      </c>
+      <c r="E68">
+        <v>0.009999483263246824</v>
+      </c>
+      <c r="F68">
+        <v>0.03958976175599376</v>
+      </c>
+      <c r="G68">
+        <v>0.031283693232785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02991916029084337</v>
+        <v>0.08120009405762096</v>
       </c>
       <c r="C69">
-        <v>-0.02715126219978255</v>
+        <v>-0.07203296048779008</v>
       </c>
       <c r="D69">
-        <v>0.07956034089595078</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008958359178486123</v>
+      </c>
+      <c r="E69">
+        <v>-0.02110466972009909</v>
+      </c>
+      <c r="F69">
+        <v>0.03309109423296254</v>
+      </c>
+      <c r="G69">
+        <v>0.1009542747746346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.180867462184024</v>
+        <v>0.1431843868014877</v>
       </c>
       <c r="C71">
-        <v>-0.110345182798473</v>
+        <v>0.2272740762224429</v>
       </c>
       <c r="D71">
-        <v>-0.1174416414824219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002658770751796358</v>
+      </c>
+      <c r="E71">
+        <v>0.03124072281003351</v>
+      </c>
+      <c r="F71">
+        <v>0.02749250097376492</v>
+      </c>
+      <c r="G71">
+        <v>0.07170817576493928</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01372575367372622</v>
+        <v>0.08428110194781628</v>
       </c>
       <c r="C72">
-        <v>-0.01662901464757915</v>
+        <v>-0.06897042460623592</v>
       </c>
       <c r="D72">
-        <v>0.1055377886059952</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008284691538868322</v>
+      </c>
+      <c r="E72">
+        <v>-0.007158168299735675</v>
+      </c>
+      <c r="F72">
+        <v>-0.03300549908526925</v>
+      </c>
+      <c r="G72">
+        <v>0.08942840682597349</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2324643101787539</v>
+        <v>0.3737782537483454</v>
       </c>
       <c r="C73">
-        <v>-0.1225380345671054</v>
+        <v>-0.1207594272875931</v>
       </c>
       <c r="D73">
-        <v>0.2896604589100937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02263579467075042</v>
+      </c>
+      <c r="E73">
+        <v>0.1192788976798069</v>
+      </c>
+      <c r="F73">
+        <v>-0.5776665925748561</v>
+      </c>
+      <c r="G73">
+        <v>-0.2905668746634226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04462647288059631</v>
+        <v>0.1041741168176103</v>
       </c>
       <c r="C74">
-        <v>-0.03661591301750933</v>
+        <v>-0.1103128884034816</v>
       </c>
       <c r="D74">
-        <v>0.1735825242614064</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009414125765037354</v>
+      </c>
+      <c r="E74">
+        <v>-0.0109809335759169</v>
+      </c>
+      <c r="F74">
+        <v>0.06704168123860997</v>
+      </c>
+      <c r="G74">
+        <v>0.08330885276498415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.113538409898945</v>
+        <v>0.2471386999917465</v>
       </c>
       <c r="C75">
-        <v>-0.08791922768619641</v>
+        <v>-0.153394185475081</v>
       </c>
       <c r="D75">
-        <v>0.3015872433906885</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03142632580621887</v>
+      </c>
+      <c r="E75">
+        <v>-0.07911973477249218</v>
+      </c>
+      <c r="F75">
+        <v>0.1595303947074247</v>
+      </c>
+      <c r="G75">
+        <v>-0.01879661497208917</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05137955040106462</v>
+        <v>0.1171041758927587</v>
       </c>
       <c r="C76">
-        <v>-0.04714636811155555</v>
+        <v>-0.1098044861213073</v>
       </c>
       <c r="D76">
-        <v>0.2015360375985493</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01763053109825748</v>
+      </c>
+      <c r="E76">
+        <v>-0.03045712816915853</v>
+      </c>
+      <c r="F76">
+        <v>0.09534915641808524</v>
+      </c>
+      <c r="G76">
+        <v>0.05874058622366339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01676649584814251</v>
+        <v>0.07051147021184691</v>
       </c>
       <c r="C77">
-        <v>0.0001352978949220112</v>
+        <v>-0.06211156050401952</v>
       </c>
       <c r="D77">
-        <v>0.08130955710459091</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01043167121970009</v>
+      </c>
+      <c r="E77">
+        <v>0.05160750916438715</v>
+      </c>
+      <c r="F77">
+        <v>-0.008844274551685405</v>
+      </c>
+      <c r="G77">
+        <v>0.06412492585767167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.008493461633430862</v>
+        <v>0.04142024153609509</v>
       </c>
       <c r="C78">
-        <v>-0.0008965640654564888</v>
+        <v>-0.04950971278505868</v>
       </c>
       <c r="D78">
-        <v>0.06340762356725042</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006136602428664053</v>
+      </c>
+      <c r="E78">
+        <v>0.03413028470587685</v>
+      </c>
+      <c r="F78">
+        <v>-0.0343668387090993</v>
+      </c>
+      <c r="G78">
+        <v>0.1035727140267408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.00036988257001015</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005444515056078862</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0002036892578291585</v>
+      </c>
+      <c r="E79">
+        <v>0.002436964337490898</v>
+      </c>
+      <c r="F79">
+        <v>-0.001450575915911334</v>
+      </c>
+      <c r="G79">
+        <v>0.0007001757422004159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03282856074145025</v>
+        <v>0.04278205603381267</v>
       </c>
       <c r="C80">
-        <v>-0.008317170255245225</v>
+        <v>-0.05240208430486845</v>
       </c>
       <c r="D80">
-        <v>0.0763231525557353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01328523988642817</v>
+      </c>
+      <c r="E80">
+        <v>0.02697989897435996</v>
+      </c>
+      <c r="F80">
+        <v>-0.008153677178662114</v>
+      </c>
+      <c r="G80">
+        <v>0.05155670521627825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0627856919762971</v>
+        <v>0.1367401308968997</v>
       </c>
       <c r="C81">
-        <v>-0.04793698665852342</v>
+        <v>-0.09868644553427659</v>
       </c>
       <c r="D81">
-        <v>0.1694555857955385</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01497849345094994</v>
+      </c>
+      <c r="E81">
+        <v>-0.04241470806690879</v>
+      </c>
+      <c r="F81">
+        <v>0.1226346433059055</v>
+      </c>
+      <c r="G81">
+        <v>0.02075333666866073</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1382864818026213</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08436947341388587</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01052328024008307</v>
+      </c>
+      <c r="E82">
+        <v>-0.1113334687147237</v>
+      </c>
+      <c r="F82">
+        <v>0.05576745298625908</v>
+      </c>
+      <c r="G82">
+        <v>0.06039432432427844</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01421839284785088</v>
+        <v>0.03577774885637772</v>
       </c>
       <c r="C83">
-        <v>-0.004868168213056357</v>
+        <v>-0.0291638490679208</v>
       </c>
       <c r="D83">
-        <v>0.02136915160966783</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006075645972422279</v>
+      </c>
+      <c r="E83">
+        <v>0.03277425382562077</v>
+      </c>
+      <c r="F83">
+        <v>-0.02779229386595156</v>
+      </c>
+      <c r="G83">
+        <v>0.0623381648024169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.09564727864448705</v>
+        <v>0.2095357310366233</v>
       </c>
       <c r="C85">
-        <v>-0.06150997392531198</v>
+        <v>-0.1487521747100748</v>
       </c>
       <c r="D85">
-        <v>0.265548581809219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01708180968373288</v>
+      </c>
+      <c r="E85">
+        <v>-0.1088766633052358</v>
+      </c>
+      <c r="F85">
+        <v>0.1022441170968125</v>
+      </c>
+      <c r="G85">
+        <v>-0.06133121258372731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01496536201588067</v>
+        <v>0.01353356171374785</v>
       </c>
       <c r="C86">
-        <v>-0.00374060118069511</v>
+        <v>-0.02547604872931577</v>
       </c>
       <c r="D86">
-        <v>0.03785240459231862</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01164159045987075</v>
+      </c>
+      <c r="E86">
+        <v>0.05373927355584917</v>
+      </c>
+      <c r="F86">
+        <v>-0.01327935408613624</v>
+      </c>
+      <c r="G86">
+        <v>0.1928118095728406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.002905427955326015</v>
+        <v>0.02172871199336599</v>
       </c>
       <c r="C87">
-        <v>0.01175879573875164</v>
+        <v>-0.01951047592061322</v>
       </c>
       <c r="D87">
-        <v>0.02884613130511493</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01218305333473529</v>
+      </c>
+      <c r="E87">
+        <v>0.09732425517644747</v>
+      </c>
+      <c r="F87">
+        <v>0.001161100361982688</v>
+      </c>
+      <c r="G87">
+        <v>0.1202666642050406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04937249543834937</v>
+        <v>0.09264517857980313</v>
       </c>
       <c r="C88">
-        <v>-0.005441171098116732</v>
+        <v>-0.06959928488439895</v>
       </c>
       <c r="D88">
-        <v>0.04163061804762429</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02202419748887309</v>
+      </c>
+      <c r="E88">
+        <v>-0.005077907391596363</v>
+      </c>
+      <c r="F88">
+        <v>0.01914910104534747</v>
+      </c>
+      <c r="G88">
+        <v>0.1017824058556094</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3391589792870915</v>
+        <v>0.2362460094548553</v>
       </c>
       <c r="C89">
-        <v>-0.2040399289875634</v>
+        <v>0.3662818118130064</v>
       </c>
       <c r="D89">
-        <v>-0.206901484452609</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-9.464465206713971e-05</v>
+      </c>
+      <c r="E89">
+        <v>-0.01892733064409141</v>
+      </c>
+      <c r="F89">
+        <v>0.0243948594210676</v>
+      </c>
+      <c r="G89">
+        <v>0.06822328377131387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2801346543818229</v>
+        <v>0.2102741487810022</v>
       </c>
       <c r="C90">
-        <v>-0.172379640963101</v>
+        <v>0.3152471971093705</v>
       </c>
       <c r="D90">
-        <v>-0.1890940297352611</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004533840363823335</v>
+      </c>
+      <c r="E90">
+        <v>-0.000965191913217867</v>
+      </c>
+      <c r="F90">
+        <v>0.0453881304530522</v>
+      </c>
+      <c r="G90">
+        <v>0.04306177943602198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09567960888050922</v>
+        <v>0.1850210857668352</v>
       </c>
       <c r="C91">
-        <v>-0.07647263190451679</v>
+        <v>-0.1416718343805819</v>
       </c>
       <c r="D91">
-        <v>0.2238009969919315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02219942221247318</v>
+      </c>
+      <c r="E91">
+        <v>-0.07199052724282627</v>
+      </c>
+      <c r="F91">
+        <v>0.1330263924017075</v>
+      </c>
+      <c r="G91">
+        <v>0.03474761267986102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2345281851918637</v>
+        <v>0.2018115116621213</v>
       </c>
       <c r="C92">
-        <v>-0.1801131723917134</v>
+        <v>0.2556056013772952</v>
       </c>
       <c r="D92">
-        <v>-0.09189448923867127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03808619267398649</v>
+      </c>
+      <c r="E92">
+        <v>0.035667953804754</v>
+      </c>
+      <c r="F92">
+        <v>0.05817624229447667</v>
+      </c>
+      <c r="G92">
+        <v>0.1118473622749434</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2965223351673706</v>
+        <v>0.2343710436733117</v>
       </c>
       <c r="C93">
-        <v>-0.188877210408667</v>
+        <v>0.3091956918908925</v>
       </c>
       <c r="D93">
-        <v>-0.1537654766724003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01112024403146236</v>
+      </c>
+      <c r="E93">
+        <v>0.001984391055814907</v>
+      </c>
+      <c r="F93">
+        <v>0.04160951280569161</v>
+      </c>
+      <c r="G93">
+        <v>0.05861205104217066</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.146753677124064</v>
+        <v>0.3218905930635727</v>
       </c>
       <c r="C94">
-        <v>-0.08599238540617779</v>
+        <v>-0.184299510115412</v>
       </c>
       <c r="D94">
-        <v>0.2879838894924286</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02032385615238685</v>
+      </c>
+      <c r="E94">
+        <v>-0.2507007577189339</v>
+      </c>
+      <c r="F94">
+        <v>0.467258973978126</v>
+      </c>
+      <c r="G94">
+        <v>-0.4070039492166837</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.002730035277370683</v>
+        <v>0.09941845358551157</v>
       </c>
       <c r="C95">
-        <v>-0.01052960267451096</v>
+        <v>-0.08959389589947481</v>
       </c>
       <c r="D95">
-        <v>0.1229157963548519</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009797609602810503</v>
+      </c>
+      <c r="E95">
+        <v>0.09225285328154013</v>
+      </c>
+      <c r="F95">
+        <v>-0.1689132511982477</v>
+      </c>
+      <c r="G95">
+        <v>-0.001425328464746023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1354310578174251</v>
+        <v>0.1927149895004466</v>
       </c>
       <c r="C98">
-        <v>-0.1023655188919934</v>
+        <v>-0.04517368603262117</v>
       </c>
       <c r="D98">
-        <v>0.1274400845617669</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0124798603702135</v>
+      </c>
+      <c r="E98">
+        <v>0.08953668883460973</v>
+      </c>
+      <c r="F98">
+        <v>-0.2341131245193894</v>
+      </c>
+      <c r="G98">
+        <v>-0.02661738085306076</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008609305199195392</v>
+        <v>0.008424184517434296</v>
       </c>
       <c r="C101">
-        <v>0.001621644189147246</v>
+        <v>-0.02302575565127968</v>
       </c>
       <c r="D101">
-        <v>0.01628006193566612</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009220814624591281</v>
+      </c>
+      <c r="E101">
+        <v>0.005470402244246921</v>
+      </c>
+      <c r="F101">
+        <v>0.01565295088617719</v>
+      </c>
+      <c r="G101">
+        <v>0.09830596438594377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05679410423954975</v>
+        <v>0.1149308240504346</v>
       </c>
       <c r="C102">
-        <v>-0.02842377593123692</v>
+        <v>-0.08366938248764152</v>
       </c>
       <c r="D102">
-        <v>0.1374334690816187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0008841360229617927</v>
+      </c>
+      <c r="E102">
+        <v>-0.03709136244954172</v>
+      </c>
+      <c r="F102">
+        <v>0.03841111170922924</v>
+      </c>
+      <c r="G102">
+        <v>0.01379641565993163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5313637161557806</v>
+        <v>0.02125070072238343</v>
       </c>
       <c r="C104">
-        <v>0.8365914492212686</v>
+        <v>0.02958663050972657</v>
       </c>
       <c r="D104">
-        <v>-0.0237115515481696</v>
+        <v>0.9877782322167412</v>
+      </c>
+      <c r="E104">
+        <v>-0.05476356042231589</v>
+      </c>
+      <c r="F104">
+        <v>0.03300212832846138</v>
+      </c>
+      <c r="G104">
+        <v>-0.03968070788788122</v>
       </c>
     </row>
   </sheetData>
